--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD8_PriceBenchmark_150422.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD8_PriceBenchmark_150422.xlsx
@@ -256,10 +256,6 @@
 [Importance]</t>
   </si>
   <si>
-    <t>TB Divisas
-[Name]</t>
-  </si>
-  <si>
     <t>BD1 Companies
 [Company ID + Name]</t>
   </si>
@@ -276,6 +272,10 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>TB Currencies
+[Currency]</t>
   </si>
 </sst>
 </file>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>34</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1037,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
@@ -1071,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1086,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1095,7 +1095,7 @@
     <row r="10" spans="1:7" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>10</v>
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>56</v>
@@ -1211,7 +1211,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="31"/>
     </row>
